--- a/SGCM/13 MATRIZ DE PRUEBAS/Matiz de Pruebas Financiamiento y obligaciones  Consulta de Solicitudes - Perfil Verificador.xlsx
+++ b/SGCM/13 MATRIZ DE PRUEBAS/Matiz de Pruebas Financiamiento y obligaciones  Consulta de Solicitudes - Perfil Verificador.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INAP-QA\Documents\GITHUB\All-documents-\SGCM\ENTREGABLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\All-documents\SGCM\13 MATRIZ DE PRUEBAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1053,14 +1053,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
-</file>
-
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1075,7 +1067,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Matiz de Pruebas Financiamiento y obligaciones  Consulta de Solicitudes - copia.xlsx]GRAFICOS!Tabla dinámica1</c:name>
+    <c:name>[Matiz de Pruebas Financiamiento y obligaciones  Consulta de Solicitudes - Perfil Verificador.xlsx]GRAFICOS!Tabla dinámica1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1110,7 +1102,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2059,7 +2050,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2161,7 +2151,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Matiz de Pruebas Financiamiento y obligaciones  Consulta de Solicitudes - copia.xlsx]GRAFICOS!Tabla dinámica2</c:name>
+    <c:name>[Matiz de Pruebas Financiamiento y obligaciones  Consulta de Solicitudes - Perfil Verificador.xlsx]GRAFICOS!Tabla dinámica2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2191,7 +2181,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2586,7 +2575,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2677,7 +2665,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Matiz de Pruebas Financiamiento y obligaciones  Consulta de Solicitudes - copia.xlsx]GRAFICOS!Tabla dinámica3</c:name>
+    <c:name>[Matiz de Pruebas Financiamiento y obligaciones  Consulta de Solicitudes - Perfil Verificador.xlsx]GRAFICOS!Tabla dinámica3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2707,7 +2695,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3312,6 +3299,44 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1"/>
+              </a:gs>
+              <a:gs pos="75000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="51000">
+                <a:schemeClr val="accent1">
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                  <a:alpha val="15000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -3771,7 +3796,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5694,105 +5718,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>1733107</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>886</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>380114</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>200911</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3088" name="Control 16" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3088"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>1733107</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>886</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>380114</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>200911</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3090" name="Control 18" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3090"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -5904,7 +5829,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -11693,7 +11618,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -11802,7 +11727,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:F50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -12024,7 +11949,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -12368,13 +12293,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N359"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14612,62 +14537,8 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
-  <drawing r:id="rId8"/>
-  <legacyDrawing r:id="rId9"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3090" r:id="rId10" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>1733550</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3090" r:id="rId10" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3088" r:id="rId12" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>1733550</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3088" r:id="rId12" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
